--- a/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_all.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_all.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Animal</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>Number_events</t>
   </si>
+  <si>
+    <t>Theta_deg</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -69,16 +72,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +101,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
     <col min="2" max="2" width="6.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.5703125" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="10.85546875" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="13.85546875" customWidth="true"/>
@@ -102,910 +109,910 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>80.958807692307701</v>
+        <v>110.8979375</v>
       </c>
       <c r="E2">
-        <v>16.5</v>
+        <v>89.900000000000006</v>
       </c>
       <c r="F2">
-        <v>0.21201411768005574</v>
+        <v>26.293669242801023</v>
       </c>
       <c r="G2">
-        <v>0.2723986130201681</v>
+        <v>25.147353230679233</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>85.20208695652174</v>
+        <v>127.41433333333332</v>
       </c>
       <c r="E3">
-        <v>26.5</v>
+        <v>83.200000000000003</v>
       </c>
       <c r="F3">
-        <v>0.30149626863363815</v>
+        <v>38.540260767151011</v>
       </c>
       <c r="G3">
-        <v>0.28442925306658395</v>
+        <v>87.052014703853928</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>49.175666666666672</v>
+        <v>68.271222222222221</v>
       </c>
       <c r="E4">
-        <v>4.9000000000000004</v>
+        <v>2.6000000000000001</v>
       </c>
       <c r="F4">
-        <v>14.072955452400258</v>
+        <v>20.78360978208244</v>
       </c>
       <c r="G4">
-        <v>9.5058581723725943</v>
+        <v>33.780114402860875</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>104.3114761904762</v>
+        <v>72.457285714285717</v>
       </c>
       <c r="E5">
-        <v>77.900000000000006</v>
+        <v>14.499999999999998</v>
       </c>
       <c r="F5">
-        <v>0.17720045146671198</v>
+        <v>97.751951387171843</v>
       </c>
       <c r="G5">
-        <v>0.23537204591876104</v>
+        <v>22.698951517636253</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>59.380444444444443</v>
+        <v>90.139857142857153</v>
       </c>
       <c r="E6">
-        <v>5.8000000000000007</v>
+        <v>40.400000000000006</v>
       </c>
       <c r="F6">
-        <v>14.152261303410137</v>
+        <v>22.659155346128859</v>
       </c>
       <c r="G6">
-        <v>14.500499991379636</v>
+        <v>12.721988838228087</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>109.92094736842105</v>
+        <v>124.99372727272726</v>
       </c>
       <c r="E7">
-        <v>86.799999999999997</v>
+        <v>96.899999999999991</v>
       </c>
       <c r="F7">
-        <v>1.8042727066605107</v>
+        <v>17.628896732353962</v>
       </c>
       <c r="G7">
-        <v>3.1180121872757733</v>
+        <v>10.619910545762711</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>99.007333333333349</v>
+        <v>71.873428571428562</v>
       </c>
       <c r="E8">
-        <v>62.5</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="F8">
-        <v>0.22513219791866801</v>
+        <v>7.3395980816390578</v>
       </c>
       <c r="G8">
-        <v>0.50855309304521912</v>
+        <v>3.8212563379076894</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>82.698400000000007</v>
+        <v>82.605285714285714</v>
       </c>
       <c r="E9">
-        <v>33.900000000000006</v>
+        <v>25.600000000000001</v>
       </c>
       <c r="F9">
-        <v>0.15524174696257623</v>
+        <v>147.52887886783387</v>
       </c>
       <c r="G9">
-        <v>0.17492855684535102</v>
+        <v>18.441792212255308</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>96.496263157894731</v>
+        <v>98.992047619047597</v>
       </c>
       <c r="E10">
-        <v>56.899999999999991</v>
+        <v>65.799999999999997</v>
       </c>
       <c r="F10">
-        <v>0.84291162051546353</v>
+        <v>9.869379970393279</v>
       </c>
       <c r="G10">
-        <v>8.9998055534550172</v>
+        <v>12.263841160093367</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>94.2323076923077</v>
+        <v>98.918928571428594</v>
       </c>
       <c r="E11">
-        <v>63.299999999999997</v>
+        <v>64.5</v>
       </c>
       <c r="F11">
-        <v>2.1617122842783356</v>
+        <v>21.336175868652933</v>
       </c>
       <c r="G11">
-        <v>1.2200409829182242</v>
+        <v>21.958020590921919</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>69.403833333333338</v>
+        <v>95.961185185185172</v>
       </c>
       <c r="E12">
-        <v>2.3999999999999999</v>
+        <v>55.600000000000009</v>
       </c>
       <c r="F12">
-        <v>1.5101324445226558</v>
+        <v>20.278630695612691</v>
       </c>
       <c r="G12">
-        <v>7.4838091905125319</v>
+        <v>17.732660726574004</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>106.17974999999998</v>
+        <v>94.89823529411764</v>
       </c>
       <c r="E13">
-        <v>94.899999999999991</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>0.15231546211729266</v>
+        <v>19.199554682335748</v>
       </c>
       <c r="G13">
-        <v>0.17492855684534128</v>
+        <v>38.608083350510846</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>138.950875</v>
+        <v>98.370555555555541</v>
       </c>
       <c r="E14">
-        <v>98.5</v>
+        <v>55.300000000000004</v>
       </c>
       <c r="F14">
-        <v>0.39604294709523213</v>
+        <v>85.130469280980705</v>
       </c>
       <c r="G14">
-        <v>1.9481716501184057</v>
+        <v>61.360945103542839</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>112.82483333333333</v>
+        <v>73.612400000000008</v>
       </c>
       <c r="E15">
-        <v>94.5</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="F15">
-        <v>5.7371816826287274</v>
+        <v>24.54096371375827</v>
       </c>
       <c r="G15">
-        <v>3.5103014719186527</v>
+        <v>37.252566408235552</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>47.397666666666659</v>
+        <v>93.519483870967747</v>
       </c>
       <c r="E16">
-        <v>10.100000000000001</v>
+        <v>47.099999999999994</v>
       </c>
       <c r="F16">
-        <v>19.499999999999993</v>
+        <v>24.486226740761829</v>
       </c>
       <c r="G16">
-        <v>19.942309294562673</v>
+        <v>17.660170469165905</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>91.616</v>
+        <v>124.53905263157894</v>
       </c>
       <c r="E17">
-        <v>45.600000000000001</v>
+        <v>99.099999999999994</v>
       </c>
       <c r="F17">
-        <v>0.20597847604460007</v>
+        <v>0.38470768123345822</v>
       </c>
       <c r="G17">
-        <v>0.13829742563700481</v>
+        <v>0.24186773244895332</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>69.805933333333329</v>
+        <v>80.903142857142853</v>
       </c>
       <c r="E18">
-        <v>8.6999999999999993</v>
+        <v>24.199999999999999</v>
       </c>
       <c r="F18">
-        <v>0.29694073203554922</v>
+        <v>5.1977879910592479</v>
       </c>
       <c r="G18">
-        <v>0.43349629204520473</v>
+        <v>5.8549124673217356</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>83.68640000000002</v>
+        <v>94.131833333333319</v>
       </c>
       <c r="E19">
-        <v>19.800000000000001</v>
+        <v>49.200000000000003</v>
       </c>
       <c r="F19">
-        <v>3.4027490899143849</v>
+        <v>0.39407814479269981</v>
       </c>
       <c r="G19">
-        <v>3.6476351707467813</v>
+        <v>0.31040611160149523</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>72.502166666666668</v>
+        <v>96.454099999999997</v>
       </c>
       <c r="E20">
-        <v>24.600000000000001</v>
+        <v>57.099999999999994</v>
       </c>
       <c r="F20">
-        <v>3.7225569097759852</v>
+        <v>25.668348428105567</v>
       </c>
       <c r="G20">
-        <v>6.9497766723568155</v>
+        <v>35.221386872423636</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>59.650076923076917</v>
+        <v>95.208833333333331</v>
       </c>
       <c r="E21">
-        <v>3.5000000000000004</v>
+        <v>54.700000000000003</v>
       </c>
       <c r="F21">
-        <v>39.176140698134098</v>
+        <v>64.502140774983673</v>
       </c>
       <c r="G21">
-        <v>24.24298661468919</v>
+        <v>73.450291908839574</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>89.073999999999998</v>
+        <v>95.286777777777772</v>
       </c>
       <c r="E22">
-        <v>48.399999999999999</v>
+        <v>56.200000000000003</v>
       </c>
       <c r="F22">
-        <v>16.630227103809872</v>
+        <v>38.540260767151011</v>
       </c>
       <c r="G22">
-        <v>27.813343581777715</v>
+        <v>29.012604157503656</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>84.129820512820515</v>
+        <v>126.40933333333334</v>
       </c>
       <c r="E23">
-        <v>19.400000000000002</v>
+        <v>96</v>
       </c>
       <c r="F23">
-        <v>4.0116829386181738</v>
+        <v>57.458668623628945</v>
       </c>
       <c r="G23">
-        <v>1.7670880000724372</v>
+        <v>45.024423161213292</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>93.707806451612939</v>
+        <v>104.7867142857143</v>
       </c>
       <c r="E24">
-        <v>51.399999999999999</v>
+        <v>87.400000000000006</v>
       </c>
       <c r="F24">
-        <v>0.18248287590895351</v>
+        <v>9.0150374375261997</v>
       </c>
       <c r="G24">
-        <v>0.12083045973596285</v>
+        <v>9.6258986593460456</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>95.120249999999999</v>
+        <v>72.643363636363631</v>
       </c>
       <c r="E25">
-        <v>56.499999999999993</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="F25">
-        <v>13.002613635031665</v>
+        <v>60.254743077631616</v>
       </c>
       <c r="G25">
-        <v>2.6876924915392797</v>
+        <v>40.124305351716032</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>90.891916666666674</v>
+        <v>96.525555555555542</v>
       </c>
       <c r="E26">
-        <v>44.399999999999999</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="F26">
-        <v>0.63218359856938078</v>
+        <v>25.713098703202899</v>
       </c>
       <c r="G26">
-        <v>0.59650559852368135</v>
+        <v>35.947819900396809</v>
       </c>
       <c r="H26">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>83.114000000000004</v>
+        <v>104.07321739130434</v>
       </c>
       <c r="E27">
-        <v>33.900000000000006</v>
+        <v>83.399999999999991</v>
       </c>
       <c r="F27">
-        <v>6.993998920393552</v>
+        <v>24.935406553733984</v>
       </c>
       <c r="G27">
-        <v>14.491796917438943</v>
+        <v>69.876458124321104</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>86.019411764705865</v>
+        <v>93.002288135593275</v>
       </c>
       <c r="E28">
-        <v>25.800000000000001</v>
+        <v>49.299999999999997</v>
       </c>
       <c r="F28">
-        <v>0.35418768909285403</v>
+        <v>13.362933809609322</v>
       </c>
       <c r="G28">
-        <v>0.2959382634752431</v>
+        <v>21.767197798522435</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>98.225857142857137</v>
+        <v>129.89185714285716</v>
       </c>
       <c r="E29">
-        <v>77.200000000000003</v>
+        <v>95.899999999999991</v>
       </c>
       <c r="F29">
-        <v>1.9949712276178713</v>
+        <v>28.67465082612167</v>
       </c>
       <c r="G29">
-        <v>1.2661201758055474</v>
+        <v>34.934488689545759</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>88.759870370370336</v>
+        <v>101.29902083333337</v>
       </c>
       <c r="E30">
-        <v>34.200000000000003</v>
+        <v>85.299999999999997</v>
       </c>
       <c r="F30">
-        <v>0.15578905937486573</v>
+        <v>26.659736030913216</v>
       </c>
       <c r="G30">
-        <v>0.13227406337702119</v>
+        <v>13.840461835537639</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31">
-        <v>119.99941176470587</v>
+        <v>88.476142857142861</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>30.699999999999999</v>
       </c>
       <c r="F31">
-        <v>5.073509633380036</v>
+        <v>19.029286639355533</v>
       </c>
       <c r="G31">
-        <v>10.012896683777397</v>
+        <v>27.79334328492849</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>74.266285714285701</v>
+        <v>98.695479999999989</v>
       </c>
       <c r="E32">
-        <v>16.900000000000002</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="F32">
-        <v>0.17290745982598615</v>
+        <v>17.788794338009563</v>
       </c>
       <c r="G32">
-        <v>0.1101595003186249</v>
+        <v>11.663824415688039</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33">
-        <v>82.710562500000009</v>
+        <v>81.40526470588236</v>
       </c>
       <c r="E33">
-        <v>29.199999999999999</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="F33">
-        <v>1.9197204848777125</v>
+        <v>27.749121938600879</v>
       </c>
       <c r="G33">
-        <v>2.6842274927181053</v>
+        <v>29.162499097183087</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34">
-        <v>99.517692307692315</v>
+        <v>104.8049565217391</v>
       </c>
       <c r="E34">
-        <v>71.399999999999991</v>
+        <v>92.300000000000011</v>
       </c>
       <c r="F34">
-        <v>0.45398237851263573</v>
+        <v>20.066159204260899</v>
       </c>
       <c r="G34">
-        <v>0.36496575181787899</v>
+        <v>18.563146476891731</v>
       </c>
       <c r="H34">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35">
-        <v>88.723558139534859</v>
+        <v>101.09297727272725</v>
       </c>
       <c r="E35">
-        <v>35.899999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="F35">
-        <v>0.16492191334571862</v>
+        <v>15.33161110135317</v>
       </c>
       <c r="G35">
-        <v>0.23792909801171741</v>
+        <v>9.0728283817425606</v>
       </c>
       <c r="H35">
         <v>44</v>
@@ -1013,236 +1020,236 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36">
-        <v>75.486750000000001</v>
+        <v>85.611363636363649</v>
       </c>
       <c r="E36">
-        <v>22.600000000000001</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="F36">
-        <v>26.975985337899569</v>
+        <v>19.399876869220087</v>
       </c>
       <c r="G36">
-        <v>9.5306098273125563</v>
+        <v>24.300180598398406</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37">
-        <v>93.666578947368421</v>
+        <v>102.07386666666665</v>
       </c>
       <c r="E37">
-        <v>50.799999999999997</v>
+        <v>70.700000000000003</v>
       </c>
       <c r="F37">
-        <v>0.47169905660283501</v>
+        <v>23.133018912368538</v>
       </c>
       <c r="G37">
-        <v>3.7064403408121631</v>
+        <v>34.01850378837964</v>
       </c>
       <c r="H37">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38">
-        <v>116.79260000000002</v>
+        <v>78.192900000000009</v>
       </c>
       <c r="E38">
-        <v>92.400000000000006</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="F38">
-        <v>1.9393004038659822</v>
+        <v>19.872742005232727</v>
       </c>
       <c r="G38">
-        <v>0.30377586630792852</v>
+        <v>13.105428406422448</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39">
-        <v>90.194699999999997</v>
+        <v>104.12934999999997</v>
       </c>
       <c r="E39">
-        <v>42.799999999999997</v>
+        <v>87.799999999999997</v>
       </c>
       <c r="F39">
-        <v>5.4673060478031346</v>
+        <v>7.1634851938377562</v>
       </c>
       <c r="G39">
-        <v>3.1716564935702642</v>
+        <v>6.3622890817172078</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40">
-        <v>103.78878947368422</v>
+        <v>79.30594545454548</v>
       </c>
       <c r="E40">
-        <v>76.700000000000003</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="F40">
-        <v>0.22203603311174805</v>
+        <v>16.570485810621275</v>
       </c>
       <c r="G40">
-        <v>0.12999999999999545</v>
+        <v>22.818810223147043</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>101.19031578947369</v>
+        <v>87.384393442622908</v>
       </c>
       <c r="E41">
-        <v>67.200000000000003</v>
+        <v>21.300000000000001</v>
       </c>
       <c r="F41">
-        <v>0.40447496832311153</v>
+        <v>56.748304820496664</v>
       </c>
       <c r="G41">
-        <v>0.27658633371881869</v>
+        <v>34.573505752237509</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42">
-        <v>87.379210526315816</v>
+        <v>106.24461904761905</v>
       </c>
       <c r="E42">
-        <v>29.599999999999998</v>
+        <v>84.399999999999991</v>
       </c>
       <c r="F42">
-        <v>4.5735434839957474</v>
+        <v>16.963254404742049</v>
       </c>
       <c r="G42">
-        <v>6.7982350650738708</v>
+        <v>7.9248722387177954</v>
       </c>
       <c r="H42">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43">
-        <v>75.942750000000004</v>
+        <v>72.262529411764703</v>
       </c>
       <c r="E43">
-        <v>17.599999999999998</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.22022715545545601</v>
+        <v>28.469507745144188</v>
       </c>
       <c r="G43">
-        <v>1.3563554106501823</v>
+        <v>29.355779286418205</v>
       </c>
       <c r="H43">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44">
-        <v>81.206444444444429</v>
+        <v>65.104176470588229</v>
       </c>
       <c r="E44">
-        <v>34.100000000000001</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="F44">
-        <v>0.72622310621459985</v>
+        <v>97.546396140503319</v>
       </c>
       <c r="G44">
-        <v>0.92005434622087656</v>
+        <v>60.316678456294305</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
